--- a/ProjectPlan & TODOLIST.xlsx
+++ b/ProjectPlan & TODOLIST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\작업\강의\OSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\석규\Documents\Shooo-Bomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F22B3D-40C2-4309-B70A-6D28CFCC7885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E71944-43C1-4A78-835E-73DF9EFD9033}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{6A25C4A6-55C8-4AA2-99C3-41C8171911EF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,18 +157,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Touch, Tilt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시간을 잠시 멈춤 or 제한시간 늘어남, 시간이 빨라짐 or 제한시간 줄어듬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 플레이화면 UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설정 씬 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이 씬:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,22 +277,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컨트롤러 스크립트: 입력에 따른 각종 컨트롤 &amp; 카메라 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폭탄 이펙트-충돌시와 시간초과시 &amp; 맵과의 충돌판정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 에셋 선정 &amp; 충돌판정 &amp; 제너레이터 스크립트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀 씬 &amp; 메뉴 씬 &amp; 설정 씬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이 씬 &amp; 게임 오버 씬 &amp; 스테이지 클리어 씬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,6 +318,58 @@
   </si>
   <si>
     <t>중간 보너스 스테이지 : 폭탄이라고 놀렸던 친구들에게 폭탄 던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정시간동안 시야 가림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도가속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도감속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 탈출구 직전 랜덤 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤러 스크립트(입력에 따른 각종 컨트롤 &amp; 카메라 이동) &amp; 맵 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 에셋 만들기 &amp; 충돌판정 &amp; 제너레이터 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄 모델 구매 &amp; 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간을 잠시 멈춤 or 제한시간 늘어남, 시간이 빨라짐 or 제한시간 줄어듬 &amp;코인(아이템샵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 씬 &amp; 메뉴 씬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,15 +437,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -425,13 +450,22 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC40E629-C20F-491C-969F-97083FF89B39}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -762,233 +796,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="D15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
@@ -999,275 +1033,321 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="F17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.4">
       <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="F19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.4">
       <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.4">
       <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="F29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="F30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="D32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.4">
       <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="1"/>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="D40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="1"/>
+      <c r="E41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E42" t="s">
-        <v>77</v>
-      </c>
+      <c r="E42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="F17:P17"/>
+    <mergeCell ref="F18:P18"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
     <mergeCell ref="I24:M24"/>
     <mergeCell ref="I25:M25"/>
     <mergeCell ref="G20:H20"/>
@@ -1276,23 +1356,21 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="F17:P17"/>
-    <mergeCell ref="F18:P18"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
     <mergeCell ref="I23:M23"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectPlan & TODOLIST.xlsx
+++ b/ProjectPlan & TODOLIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\석규\Documents\Shooo-Bomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E71944-43C1-4A78-835E-73DF9EFD9033}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC2938-77F2-4991-B3F1-2F8A606EB7B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{6A25C4A6-55C8-4AA2-99C3-41C8171911EF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,14 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이 씬 &amp; 게임 오버 씬 &amp; 스테이지 클리어 씬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각종 감독 스크립트: 제한시간 관리, 아이템 효과, 씬 전환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여기까지 순조롭다면 보너스 스테이지+엔딩씬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 에셋 만들기 &amp; 충돌판정 &amp; 제너레이터 스크립트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폭탄 모델 구매 &amp; 효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,7 +357,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타이틀 씬 &amp; 메뉴 씬</t>
+    <t xml:space="preserve">각종 감독 스크립트: 제한시간 관리, 아이템 효과, 씬 전환 &amp; Stage 4 맵 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 씬 &amp; 게임 오버 씬 &amp; 스테이지 클리어 씬 &amp; Stage4 맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템샵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 씬 &amp; 메뉴 씬 &amp; Stage 맵 &amp; 제너레이터 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 에셋 만들기 &amp; stage1맵 완성 &amp; Stage2 맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,22 +458,25 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,7 +796,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -803,11 +814,11 @@
         <v>9</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -821,12 +832,12 @@
         <v>10</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -839,15 +850,15 @@
         <v>11</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -859,17 +870,17 @@
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
@@ -879,12 +890,12 @@
         <v>13</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -897,11 +908,11 @@
         <v>14</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -915,11 +926,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -933,12 +944,12 @@
         <v>16</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -951,11 +962,11 @@
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -969,11 +980,11 @@
         <v>18</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -991,11 +1002,11 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -1052,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1070,7 +1081,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1117,7 +1128,7 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -1236,40 +1247,50 @@
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.4">
       <c r="F35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.4">
       <c r="F36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.4">
       <c r="F37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D40" s="6" t="s">
@@ -1293,7 +1314,7 @@
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D43" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1301,7 +1322,7 @@
     <row r="44" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1311,7 +1332,7 @@
     <row r="45" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1321,7 +1342,7 @@
     <row r="46" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1329,34 +1350,8 @@
       <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="F17:P17"/>
-    <mergeCell ref="F18:P18"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I23:M23"/>
+  <mergeCells count="42">
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D43:F43"/>
@@ -1371,6 +1366,33 @@
     <mergeCell ref="F29:K29"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="F17:P17"/>
+    <mergeCell ref="F18:P18"/>
+    <mergeCell ref="I20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
